--- a/NformTester/NformTester/Keywordscripts/600.60.30.40_IntervalForGlobalStatusPolling.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.30.40_IntervalForGlobalStatusPolling.xlsx
@@ -4642,8 +4642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/Keywordscripts/600.60.30.40_IntervalForGlobalStatusPolling.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.30.40_IntervalForGlobalStatusPolling.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7944" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7944" uniqueCount="900">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3947,13 +3947,6 @@
     <t>$SNMP_device_1$</t>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_1_NAME$</t>
-  </si>
-  <si>
     <t>Equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3962,18 +3955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$Trap_GXT_ChangeData$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4033,8 +4014,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Port$</t>
   </si>
 </sst>
 </file>
@@ -4642,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="E49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4660,10 +4648,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>840</v>
@@ -4704,10 +4692,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4728,10 +4716,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4762,10 +4750,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4792,7 +4780,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B5" s="8">
         <v>41732</v>
@@ -4816,10 +4804,10 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4865,7 +4853,7 @@
         <v>875</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>835</v>
@@ -4880,7 +4868,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -4903,7 +4891,7 @@
         <v>876</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>835</v>
@@ -4918,7 +4906,7 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
@@ -5046,7 +5034,7 @@
         <v>853</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J13" s="4" t="b">
         <v>1</v>
@@ -5102,7 +5090,7 @@
         <v>504</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>865</v>
@@ -5243,7 +5231,7 @@
         <v>56</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -5409,13 +5397,13 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="9" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="I27" s="9">
         <v>1</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -5537,7 +5525,7 @@
         <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>2</v>
@@ -5659,13 +5647,13 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="9" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="I38" s="9">
         <v>1</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -5747,13 +5735,13 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="9" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="I42" s="9">
         <v>1</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -5915,7 +5903,7 @@
         <v>19</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>2</v>
@@ -6037,13 +6025,13 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="9" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
       <c r="I55" s="9">
         <v>1</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -6195,7 +6183,7 @@
         <v>56</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -6472,7 +6460,7 @@
         <v>853</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J74" s="4" t="b">
         <v>1</v>
